--- a/TestData/xlsx/Materias.xlsx
+++ b/TestData/xlsx/Materias.xlsx
@@ -371,10 +371,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
